--- a/SchedulingData/dynamic14/pso/scheduling1_9.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling1_9.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>48.86</v>
+        <v>45.48</v>
       </c>
       <c r="E2" t="n">
-        <v>26.304</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="3">
@@ -485,36 +485,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>70.2</v>
+        <v>51.02</v>
       </c>
       <c r="E3" t="n">
-        <v>25.68</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>54.5</v>
+        <v>79.16</v>
       </c>
       <c r="E4" t="n">
-        <v>27.24</v>
+        <v>26.744</v>
       </c>
     </row>
     <row r="5">
@@ -523,55 +523,55 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>73.5</v>
+        <v>59.44</v>
       </c>
       <c r="E5" t="n">
-        <v>25.32</v>
+        <v>26.256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>70.2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>130.28</v>
+        <v>57.66</v>
       </c>
       <c r="E6" t="n">
-        <v>22.292</v>
+        <v>27.404</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>51.02</v>
       </c>
       <c r="D7" t="n">
-        <v>63.3</v>
+        <v>107.12</v>
       </c>
       <c r="E7" t="n">
-        <v>27.8</v>
+        <v>22.608</v>
       </c>
     </row>
     <row r="8">
@@ -580,17 +580,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>63.3</v>
+        <v>79.16</v>
       </c>
       <c r="D8" t="n">
-        <v>104.3</v>
+        <v>137.66</v>
       </c>
       <c r="E8" t="n">
-        <v>24.84</v>
+        <v>23.024</v>
       </c>
     </row>
     <row r="9">
@@ -599,17 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>73.5</v>
+        <v>59.44</v>
       </c>
       <c r="D9" t="n">
-        <v>135.6</v>
+        <v>121.14</v>
       </c>
       <c r="E9" t="n">
-        <v>21.24</v>
+        <v>23.176</v>
       </c>
     </row>
     <row r="10">
@@ -618,112 +618,112 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>135.6</v>
+        <v>121.14</v>
       </c>
       <c r="D10" t="n">
-        <v>193.32</v>
+        <v>172.76</v>
       </c>
       <c r="E10" t="n">
-        <v>18.588</v>
+        <v>19.144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>54.5</v>
+        <v>107.12</v>
       </c>
       <c r="D11" t="n">
-        <v>114.5</v>
+        <v>153.62</v>
       </c>
       <c r="E11" t="n">
-        <v>23.86</v>
+        <v>20.088</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.76</v>
       </c>
       <c r="D12" t="n">
-        <v>59.14</v>
+        <v>244.94</v>
       </c>
       <c r="E12" t="n">
-        <v>26.256</v>
+        <v>15.036</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>48.86</v>
+        <v>153.62</v>
       </c>
       <c r="D13" t="n">
-        <v>106.14</v>
+        <v>209.68</v>
       </c>
       <c r="E13" t="n">
-        <v>22.196</v>
+        <v>16.612</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>130.28</v>
+        <v>57.66</v>
       </c>
       <c r="D14" t="n">
-        <v>196.6</v>
+        <v>107.9</v>
       </c>
       <c r="E14" t="n">
-        <v>18.26</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>114.5</v>
+        <v>137.66</v>
       </c>
       <c r="D15" t="n">
-        <v>172.4</v>
+        <v>198.46</v>
       </c>
       <c r="E15" t="n">
-        <v>19.7</v>
+        <v>20.064</v>
       </c>
     </row>
     <row r="16">
@@ -732,17 +732,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>104.3</v>
+        <v>198.46</v>
       </c>
       <c r="D16" t="n">
-        <v>155.7</v>
+        <v>274.16</v>
       </c>
       <c r="E16" t="n">
-        <v>20.34</v>
+        <v>16.104</v>
       </c>
     </row>
     <row r="17">
@@ -751,36 +751,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>106.14</v>
+        <v>45.48</v>
       </c>
       <c r="D17" t="n">
-        <v>180</v>
+        <v>100.08</v>
       </c>
       <c r="E17" t="n">
-        <v>18.94</v>
+        <v>21.832</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>180</v>
+        <v>274.16</v>
       </c>
       <c r="D18" t="n">
-        <v>240.76</v>
+        <v>328.14</v>
       </c>
       <c r="E18" t="n">
-        <v>15.464</v>
+        <v>13.816</v>
       </c>
     </row>
     <row r="19">
@@ -789,74 +789,74 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>155.7</v>
+        <v>328.14</v>
       </c>
       <c r="D19" t="n">
-        <v>247.9</v>
+        <v>417.16</v>
       </c>
       <c r="E19" t="n">
-        <v>16.7</v>
+        <v>9.504</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>172.4</v>
+        <v>209.68</v>
       </c>
       <c r="D20" t="n">
-        <v>229.4</v>
+        <v>247.28</v>
       </c>
       <c r="E20" t="n">
-        <v>15.62</v>
+        <v>13.492</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>193.32</v>
+        <v>100.08</v>
       </c>
       <c r="D21" t="n">
-        <v>267.64</v>
+        <v>172.88</v>
       </c>
       <c r="E21" t="n">
-        <v>14.276</v>
+        <v>17.672</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>59.14</v>
+        <v>247.28</v>
       </c>
       <c r="D22" t="n">
-        <v>96.5</v>
+        <v>325.54</v>
       </c>
       <c r="E22" t="n">
-        <v>23.66</v>
+        <v>10.756</v>
       </c>
     </row>
     <row r="23">
@@ -865,17 +865,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>96.5</v>
+        <v>107.9</v>
       </c>
       <c r="D23" t="n">
-        <v>147.52</v>
+        <v>157.6</v>
       </c>
       <c r="E23" t="n">
-        <v>20.668</v>
+        <v>20.66</v>
       </c>
     </row>
     <row r="24">
@@ -884,17 +884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>147.52</v>
+        <v>157.6</v>
       </c>
       <c r="D24" t="n">
-        <v>195.88</v>
+        <v>205.9</v>
       </c>
       <c r="E24" t="n">
-        <v>17.452</v>
+        <v>18.46</v>
       </c>
     </row>
     <row r="25">
@@ -903,36 +903,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>267.64</v>
+        <v>244.94</v>
       </c>
       <c r="D25" t="n">
-        <v>321.18</v>
+        <v>326.56</v>
       </c>
       <c r="E25" t="n">
-        <v>11.052</v>
+        <v>11.004</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>321.18</v>
+        <v>172.88</v>
       </c>
       <c r="D26" t="n">
-        <v>385.88</v>
+        <v>235.98</v>
       </c>
       <c r="E26" t="n">
-        <v>7.212</v>
+        <v>12.992</v>
       </c>
     </row>
     <row r="27">
@@ -941,36 +941,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>240.76</v>
+        <v>235.98</v>
       </c>
       <c r="D27" t="n">
-        <v>311.98</v>
+        <v>284.42</v>
       </c>
       <c r="E27" t="n">
-        <v>11.432</v>
+        <v>9.768000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>196.6</v>
+        <v>205.9</v>
       </c>
       <c r="D28" t="n">
-        <v>266.6</v>
+        <v>269.16</v>
       </c>
       <c r="E28" t="n">
-        <v>14.84</v>
+        <v>15.244</v>
       </c>
     </row>
     <row r="29">
@@ -979,55 +979,55 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>311.98</v>
+        <v>284.42</v>
       </c>
       <c r="D29" t="n">
-        <v>350.86</v>
+        <v>349.52</v>
       </c>
       <c r="E29" t="n">
-        <v>8.183999999999999</v>
+        <v>6.348</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>266.6</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>325.04</v>
+        <v>52.8</v>
       </c>
       <c r="E30" t="n">
-        <v>11.616</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>350.86</v>
+        <v>417.16</v>
       </c>
       <c r="D31" t="n">
-        <v>420.98</v>
+        <v>460.94</v>
       </c>
       <c r="E31" t="n">
-        <v>5.272</v>
+        <v>6.256</v>
       </c>
     </row>
     <row r="32">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>247.9</v>
+        <v>460.94</v>
       </c>
       <c r="D32" t="n">
-        <v>316.1</v>
+        <v>523.34</v>
       </c>
       <c r="E32" t="n">
-        <v>12.98</v>
+        <v>2.616</v>
       </c>
     </row>
     <row r="33">
@@ -1055,17 +1055,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>229.4</v>
+        <v>52.8</v>
       </c>
       <c r="D33" t="n">
-        <v>267</v>
+        <v>126.08</v>
       </c>
       <c r="E33" t="n">
-        <v>12.5</v>
+        <v>23.192</v>
       </c>
     </row>
     <row r="34">
@@ -1074,55 +1074,55 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>267</v>
+        <v>126.08</v>
       </c>
       <c r="D34" t="n">
-        <v>337.6</v>
+        <v>175.84</v>
       </c>
       <c r="E34" t="n">
-        <v>8.539999999999999</v>
+        <v>20.816</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>325.04</v>
+        <v>269.16</v>
       </c>
       <c r="D35" t="n">
-        <v>373.5</v>
+        <v>325.78</v>
       </c>
       <c r="E35" t="n">
-        <v>8.880000000000001</v>
+        <v>11.212</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>316.1</v>
+        <v>326.56</v>
       </c>
       <c r="D36" t="n">
-        <v>367.66</v>
+        <v>377.86</v>
       </c>
       <c r="E36" t="n">
-        <v>9.964</v>
+        <v>8.964</v>
       </c>
     </row>
     <row r="37">
@@ -1131,17 +1131,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>195.88</v>
+        <v>325.78</v>
       </c>
       <c r="D37" t="n">
-        <v>236.22</v>
+        <v>366.94</v>
       </c>
       <c r="E37" t="n">
-        <v>14.548</v>
+        <v>8.715999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1150,36 +1150,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>373.5</v>
+        <v>325.54</v>
       </c>
       <c r="D38" t="n">
-        <v>435.1</v>
+        <v>362.1</v>
       </c>
       <c r="E38" t="n">
-        <v>6.84</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>420.98</v>
+        <v>175.84</v>
       </c>
       <c r="D39" t="n">
-        <v>474.36</v>
+        <v>251.56</v>
       </c>
       <c r="E39" t="n">
-        <v>2.544</v>
+        <v>17.824</v>
       </c>
     </row>
     <row r="40">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>385.88</v>
+        <v>377.86</v>
       </c>
       <c r="D40" t="n">
-        <v>475.16</v>
+        <v>454.56</v>
       </c>
       <c r="E40" t="n">
-        <v>3.364</v>
+        <v>4.884</v>
       </c>
     </row>
     <row r="41">
@@ -1207,74 +1207,74 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>474.36</v>
+        <v>349.52</v>
       </c>
       <c r="D41" t="n">
-        <v>524.12</v>
+        <v>407.78</v>
       </c>
       <c r="E41" t="n">
-        <v>0.168</v>
+        <v>2.652</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>524.12</v>
+        <v>251.56</v>
       </c>
       <c r="D42" t="n">
-        <v>595.78</v>
+        <v>311.46</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>14.444</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>236.22</v>
+        <v>311.46</v>
       </c>
       <c r="D43" t="n">
-        <v>315.82</v>
+        <v>355.3</v>
       </c>
       <c r="E43" t="n">
-        <v>9.688000000000001</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>315.82</v>
+        <v>362.1</v>
       </c>
       <c r="D44" t="n">
-        <v>356.98</v>
+        <v>423.3</v>
       </c>
       <c r="E44" t="n">
-        <v>7.192</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="45">
@@ -1283,60 +1283,60 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>356.98</v>
+        <v>366.94</v>
       </c>
       <c r="D45" t="n">
-        <v>418.98</v>
+        <v>431.74</v>
       </c>
       <c r="E45" t="n">
-        <v>4.112</v>
+        <v>3.856</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>435.1</v>
+        <v>355.3</v>
       </c>
       <c r="D46" t="n">
-        <v>518.78</v>
+        <v>393.96</v>
       </c>
       <c r="E46" t="n">
-        <v>4.552</v>
+        <v>7.964</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>518.78</v>
+        <v>431.74</v>
       </c>
       <c r="D47" t="n">
-        <v>574.88</v>
+        <v>480.74</v>
       </c>
       <c r="E47" t="n">
-        <v>0.07199999999999999</v>
+        <v>1.096</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>574.88</v>
+        <v>480.74</v>
       </c>
       <c r="D48" t="n">
-        <v>656.54</v>
+        <v>550.45</v>
       </c>
       <c r="E48" t="n">
         <v>30</v>
@@ -1355,59 +1355,59 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>367.66</v>
+        <v>407.78</v>
       </c>
       <c r="D49" t="n">
-        <v>459.08</v>
+        <v>455.4</v>
       </c>
       <c r="E49" t="n">
-        <v>5.932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>418.98</v>
+        <v>455.4</v>
       </c>
       <c r="D50" t="n">
-        <v>477.44</v>
+        <v>547</v>
       </c>
       <c r="E50" t="n">
-        <v>1.376</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477.44</v>
+        <v>454.56</v>
       </c>
       <c r="D51" t="n">
-        <v>556.49</v>
+        <v>501.7</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="52">
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>475.16</v>
+        <v>501.7</v>
       </c>
       <c r="D52" t="n">
-        <v>535.4299999999999</v>
+        <v>580.8</v>
       </c>
       <c r="E52" t="n">
         <v>30</v>
@@ -1431,21 +1431,21 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>535.4299999999999</v>
+        <v>393.96</v>
       </c>
       <c r="D53" t="n">
-        <v>579.87</v>
+        <v>457.6</v>
       </c>
       <c r="E53" t="n">
-        <v>26.256</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="54">
@@ -1454,17 +1454,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>337.6</v>
+        <v>457.6</v>
       </c>
       <c r="D54" t="n">
-        <v>384.74</v>
+        <v>507.88</v>
       </c>
       <c r="E54" t="n">
-        <v>4.956</v>
+        <v>1.352</v>
       </c>
     </row>
     <row r="55">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>384.74</v>
+        <v>507.88</v>
       </c>
       <c r="D55" t="n">
-        <v>426.14</v>
+        <v>581.98</v>
       </c>
       <c r="E55" t="n">
-        <v>2.436</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
